--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-desired-masking-0.35/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-desired-masking-0.35/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="943">
   <si>
     <t>anchor score</t>
   </si>
@@ -292,565 +292,565 @@
     <t>negative</t>
   </si>
   <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>suffer</t>
+  </si>
+  <si>
+    <t>doubled</t>
+  </si>
+  <si>
+    <t>stressed</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>hoax</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>combat</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>infection</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>bitch</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>lost</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>delayed</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>flour</t>
+  </si>
+  <si>
+    <t>started</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>since</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>trump</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>suffer</t>
-  </si>
-  <si>
-    <t>doubled</t>
-  </si>
-  <si>
-    <t>stressed</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>hoax</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>combat</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>infection</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>bitch</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>lost</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>problems</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>delayed</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>flour</t>
-  </si>
-  <si>
-    <t>started</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>farm</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>te</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>financial</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>since</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>trump</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>people</t>
   </si>
   <si>
     <t>love</t>
@@ -3211,7 +3211,7 @@
         <v>91</v>
       </c>
       <c r="J1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K4">
         <v>0.889763779527559</v>
@@ -3440,7 +3440,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K6">
         <v>0.8571428571428571</v>
@@ -3490,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K7">
         <v>0.8089171974522293</v>
@@ -3590,7 +3590,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K9">
         <v>0.7931034482758621</v>
@@ -3640,7 +3640,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K10">
         <v>0.7875</v>
@@ -3690,28 +3690,28 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="K11">
-        <v>0.7631578947368421</v>
+        <v>0.7612732095490716</v>
       </c>
       <c r="L11">
-        <v>174</v>
+        <v>287</v>
       </c>
       <c r="M11">
-        <v>185</v>
+        <v>293</v>
       </c>
       <c r="N11">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O11">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>54</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3740,28 +3740,28 @@
         <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="K12">
-        <v>0.7612732095490716</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="L12">
-        <v>287</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>293</v>
+        <v>72</v>
       </c>
       <c r="N12">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="O12">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>90</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3790,28 +3790,28 @@
         <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>90</v>
+        <v>277</v>
       </c>
       <c r="K13">
-        <v>0.7528089887640449</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L13">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="M13">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="N13">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3840,7 +3840,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K14">
         <v>0.7014925373134329</v>
@@ -3890,7 +3890,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K15">
         <v>0.6890459363957597</v>
@@ -3940,28 +3940,28 @@
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K16">
-        <v>0.6840490797546013</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="L16">
-        <v>223</v>
+        <v>56</v>
       </c>
       <c r="M16">
-        <v>237</v>
+        <v>60</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>103</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3990,28 +3990,28 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>107</v>
+        <v>278</v>
       </c>
       <c r="K17">
-        <v>0.6588235294117647</v>
+        <v>0.6558823529411765</v>
       </c>
       <c r="L17">
-        <v>56</v>
+        <v>223</v>
       </c>
       <c r="M17">
-        <v>60</v>
+        <v>223</v>
       </c>
       <c r="N17">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>29</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4090,7 +4090,7 @@
         <v>63</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K19">
         <v>0.6140350877192983</v>
@@ -4140,7 +4140,7 @@
         <v>3</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K20">
         <v>0.5253164556962026</v>
@@ -4240,7 +4240,7 @@
         <v>4</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K22">
         <v>0.4716049382716049</v>
@@ -4390,7 +4390,7 @@
         <v>2</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K25">
         <v>0.4528301886792453</v>
@@ -4490,7 +4490,7 @@
         <v>11</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K27">
         <v>0.4487179487179487</v>
@@ -4640,7 +4640,7 @@
         <v>7</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K30">
         <v>0.4297520661157025</v>
@@ -4690,7 +4690,7 @@
         <v>3</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K31">
         <v>0.4285714285714285</v>
@@ -4790,7 +4790,7 @@
         <v>5</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K33">
         <v>0.4210526315789473</v>
@@ -4890,7 +4890,7 @@
         <v>11</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K35">
         <v>0.4126984126984127</v>
@@ -4940,7 +4940,7 @@
         <v>3</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K36">
         <v>0.4099378881987578</v>
@@ -4990,7 +4990,7 @@
         <v>6</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K37">
         <v>0.40625</v>
@@ -5290,7 +5290,7 @@
         <v>36</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K43">
         <v>0.3636363636363636</v>
@@ -5340,7 +5340,7 @@
         <v>248</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K44">
         <v>0.3617021276595745</v>
@@ -5440,7 +5440,7 @@
         <v>5</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K46">
         <v>0.3484848484848485</v>
@@ -5490,7 +5490,7 @@
         <v>9</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K47">
         <v>0.3481481481481482</v>
@@ -5540,7 +5540,7 @@
         <v>17</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K48">
         <v>0.3478260869565217</v>
@@ -5590,7 +5590,7 @@
         <v>4</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K49">
         <v>0.3475409836065574</v>
@@ -5640,7 +5640,7 @@
         <v>4</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K50">
         <v>0.3464373464373464</v>
@@ -5740,7 +5740,7 @@
         <v>19</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K52">
         <v>0.3368421052631579</v>
@@ -6190,7 +6190,7 @@
         <v>4</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K61">
         <v>0.3280363223609535</v>
@@ -6390,7 +6390,7 @@
         <v>6</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K65">
         <v>0.3149606299212598</v>
@@ -6590,7 +6590,7 @@
         <v>11</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K69">
         <v>0.3046875</v>
@@ -6640,7 +6640,7 @@
         <v>17</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K70">
         <v>0.2947131608548931</v>
@@ -6840,7 +6840,7 @@
         <v>61</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K74">
         <v>0.2869822485207101</v>
@@ -6890,7 +6890,7 @@
         <v>10</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K75">
         <v>0.2863849765258216</v>
@@ -7140,7 +7140,7 @@
         <v>16</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K80">
         <v>0.2857142857142857</v>
@@ -7390,7 +7390,7 @@
         <v>22</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K85">
         <v>0.2752293577981652</v>
@@ -7469,25 +7469,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1692307692307692</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C87">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>185</v>
+        <v>1</v>
       </c>
       <c r="E87">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>321</v>
@@ -7522,10 +7522,10 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -7537,7 +7537,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>322</v>
@@ -7572,10 +7572,10 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -7587,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>323</v>
@@ -7690,7 +7690,7 @@
         <v>5</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K91">
         <v>0.2636363636363636</v>
@@ -7719,13 +7719,13 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1666666666666667</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -7737,7 +7737,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>325</v>
@@ -7769,13 +7769,13 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1621621621621622</v>
+        <v>0.1610738255033557</v>
       </c>
       <c r="C93">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D93">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -7787,7 +7787,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>326</v>
@@ -7819,13 +7819,13 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1610738255033557</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C94">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D94">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -7837,10 +7837,10 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K94">
         <v>0.2630029440628067</v>
@@ -7869,13 +7869,13 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1538461538461539</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -7887,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>327</v>
@@ -7919,25 +7919,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.1428571428571428</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>328</v>
@@ -7969,28 +7969,28 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.1304347826086956</v>
+        <v>0.125</v>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E97">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K97">
         <v>0.2592592592592592</v>
@@ -8022,10 +8022,10 @@
         <v>0.125</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -8037,7 +8037,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>329</v>
@@ -8072,10 +8072,10 @@
         <v>0.125</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -8087,7 +8087,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>330</v>
@@ -8122,10 +8122,10 @@
         <v>0.125</v>
       </c>
       <c r="C100">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -8137,10 +8137,10 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K100">
         <v>0.2571428571428571</v>
@@ -8169,28 +8169,28 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.125</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K101">
         <v>0.2566844919786097</v>
@@ -8219,25 +8219,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1212121212121212</v>
+        <v>0.12</v>
       </c>
       <c r="C102">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D102">
-        <v>60</v>
+        <v>207</v>
       </c>
       <c r="E102">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F102">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G102" t="b">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>331</v>
@@ -8269,25 +8269,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.12</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C103">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D103">
-        <v>207</v>
+        <v>2</v>
       </c>
       <c r="E103">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>332</v>
@@ -8319,25 +8319,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.1196581196581197</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C104">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D104">
-        <v>237</v>
+        <v>3</v>
       </c>
       <c r="E104">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>333</v>
@@ -8369,13 +8369,13 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.1176470588235294</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -8387,7 +8387,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>334</v>
@@ -8419,13 +8419,13 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.1153846153846154</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -8437,7 +8437,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>335</v>
@@ -8475,16 +8475,16 @@
         <v>1</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107">
         <v>8</v>
@@ -8522,10 +8522,10 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -8537,10 +8537,10 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K108">
         <v>0.25</v>
@@ -8575,16 +8575,16 @@
         <v>1</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E109">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
         <v>8</v>
@@ -8619,25 +8619,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.1111111111111111</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C110">
         <v>2</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>338</v>
@@ -8669,13 +8669,13 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>339</v>
@@ -8719,25 +8719,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.1052631578947368</v>
+        <v>0.1</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="E112">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>340</v>
@@ -8772,10 +8772,10 @@
         <v>0.1</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>341</v>
@@ -8819,7 +8819,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8837,10 +8837,10 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K114">
         <v>0.2446808510638298</v>
@@ -8869,7 +8869,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -8887,10 +8887,10 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K115">
         <v>0.2439024390243902</v>
@@ -8922,22 +8922,22 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>342</v>
@@ -8972,25 +8972,25 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K117">
         <v>0.2424242424242424</v>
@@ -9022,10 +9022,10 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D118">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E118">
         <v>0.98</v>
@@ -9037,7 +9037,7 @@
         <v>1</v>
       </c>
       <c r="H118">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>343</v>
@@ -9069,25 +9069,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E119">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>344</v>
@@ -9119,25 +9119,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="E120">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>345</v>
@@ -9175,22 +9175,22 @@
         <v>1</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121">
         <v>11</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K121">
         <v>0.2353219696969697</v>
@@ -9269,25 +9269,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E123">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>347</v>
@@ -9319,25 +9319,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>348</v>
@@ -9372,22 +9372,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>349</v>
@@ -9419,25 +9419,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126">
         <v>2</v>
       </c>
       <c r="E126">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>350</v>
@@ -9469,28 +9469,28 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
       <c r="D127">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="E127">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K127">
         <v>0.2291666666666667</v>
@@ -9522,25 +9522,25 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K128">
         <v>0.2276422764227642</v>
@@ -9575,22 +9575,22 @@
         <v>1</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
         <v>13</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K129">
         <v>0.2264150943396226</v>
@@ -9625,13 +9625,13 @@
         <v>1</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E130">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F130">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
@@ -9640,7 +9640,7 @@
         <v>13</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K130">
         <v>0.2258064516129032</v>
@@ -9725,13 +9725,13 @@
         <v>1</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E132">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F132">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
@@ -9769,25 +9769,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
       <c r="D133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E133">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F133">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>353</v>
@@ -9819,25 +9819,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="D134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E134">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>354</v>
@@ -9875,13 +9875,13 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="E135">
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="F135">
-        <v>0.25</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
@@ -9919,25 +9919,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.06666666666666667</v>
+        <v>0.06315789473684211</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="G136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>356</v>
@@ -9969,25 +9969,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="E137">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>357</v>
@@ -10019,25 +10019,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.06315789473684211</v>
+        <v>0.0625</v>
       </c>
       <c r="C138">
         <v>6</v>
       </c>
       <c r="D138">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="E138">
-        <v>0.87</v>
+        <v>0.98</v>
       </c>
       <c r="F138">
-        <v>0.13</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>358</v>
@@ -10069,13 +10069,13 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -10087,10 +10087,10 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K139">
         <v>0.2142857142857143</v>
@@ -10119,25 +10119,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C140">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>293</v>
+        <v>2</v>
       </c>
       <c r="E140">
-        <v>0.98</v>
+        <v>0.5</v>
       </c>
       <c r="F140">
-        <v>0.02000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>359</v>
@@ -10172,22 +10172,22 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>360</v>
@@ -10225,13 +10225,13 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E142">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F142">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
@@ -10275,16 +10275,16 @@
         <v>1</v>
       </c>
       <c r="D143">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E143">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143">
         <v>16</v>
@@ -10340,7 +10340,7 @@
         <v>16</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K144">
         <v>0.2083333333333333</v>
@@ -10369,25 +10369,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.05882352941176471</v>
+        <v>0.05726872246696035</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>363</v>
@@ -10419,28 +10419,28 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E146">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K146">
         <v>0.2076923076923077</v>
@@ -10469,28 +10469,28 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.05726872246696035</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="C147">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D147">
-        <v>204</v>
+        <v>22</v>
       </c>
       <c r="E147">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F147">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>214</v>
+        <v>35</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K147">
         <v>0.2075471698113208</v>
@@ -10519,13 +10519,13 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -10537,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>364</v>
@@ -10569,28 +10569,28 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.05405405405405406</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E149">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="F149">
-        <v>0.08999999999999997</v>
+        <v>0.25</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K149">
         <v>0.2067757009345794</v>
@@ -10622,25 +10622,25 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D150">
         <v>2</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K150">
         <v>0.2043795620437956</v>
@@ -10669,25 +10669,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D151">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E151">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>365</v>
@@ -10719,28 +10719,28 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E152">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F152">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K152">
         <v>0.202808112324493</v>
@@ -10769,25 +10769,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>366</v>
@@ -10819,25 +10819,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D154">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E154">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="F154">
-        <v>0.06999999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>367</v>
@@ -10869,25 +10869,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E155">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F155">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>368</v>
@@ -10919,28 +10919,28 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E156">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F156">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K156">
         <v>0.2</v>
@@ -10975,13 +10975,13 @@
         <v>1</v>
       </c>
       <c r="D157">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E157">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F157">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
@@ -10990,7 +10990,7 @@
         <v>20</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K157">
         <v>0.2</v>
@@ -11019,25 +11019,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E158">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F158">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>369</v>
@@ -11069,25 +11069,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E159">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>370</v>
@@ -11119,25 +11119,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.04545454545454546</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D160">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E160">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>371</v>
@@ -11169,25 +11169,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.04545454545454546</v>
+        <v>0.04395604395604396</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>372</v>
@@ -11219,25 +11219,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.04444444444444445</v>
+        <v>0.04365079365079365</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>43</v>
+        <v>241</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>373</v>
@@ -11269,25 +11269,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.04395604395604396</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C163">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E163">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>374</v>
@@ -11319,25 +11319,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.04365079365079365</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C164">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D164">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="E164">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F164">
-        <v>0.09999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>241</v>
+        <v>22</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>375</v>
@@ -11375,16 +11375,16 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165">
         <v>22</v>
@@ -11469,25 +11469,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="E167">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F167">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>378</v>
@@ -11519,25 +11519,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E168">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F168">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>86</v>
@@ -11575,13 +11575,13 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E169">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F169">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
@@ -11619,28 +11619,28 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.04166666666666666</v>
+        <v>0.04054054054054054</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D170">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E170">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F170">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K170">
         <v>0.1985294117647059</v>
@@ -11669,25 +11669,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.04166666666666666</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D171">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E171">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="F171">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>379</v>
@@ -11719,25 +11719,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.04054054054054054</v>
+        <v>0.04</v>
       </c>
       <c r="C172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E172">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="F172">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>380</v>
@@ -11769,25 +11769,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.04040404040404041</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C173">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E173">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="F173">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>381</v>
@@ -11819,25 +11819,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E174">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="F174">
-        <v>0.05000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>382</v>
@@ -11869,25 +11869,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E175">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="F175">
-        <v>0.17</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>383</v>
@@ -11919,25 +11919,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E176">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F176">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>384</v>
@@ -11969,25 +11969,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.03703703703703703</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D177">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E177">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F177">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>385</v>
@@ -12019,25 +12019,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.03703703703703703</v>
+        <v>0.03658536585365853</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D178">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E178">
-        <v>0.67</v>
+        <v>0.91</v>
       </c>
       <c r="F178">
-        <v>0.33</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>386</v>
@@ -12069,25 +12069,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.03669724770642202</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="C179">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D179">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="E179">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>387</v>
@@ -12119,25 +12119,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.03658536585365853</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="C180">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D180">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="E180">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="F180">
-        <v>0.08999999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>388</v>
@@ -12169,13 +12169,13 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.03636363636363636</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -12187,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="H181">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>389</v>
@@ -12219,25 +12219,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.03529411764705882</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C182">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="E182">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F182">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>246</v>
+        <v>28</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>390</v>
@@ -12269,25 +12269,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.03448275862068965</v>
+        <v>0.03370786516853932</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>391</v>
@@ -12319,28 +12319,28 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E184">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K184">
         <v>0.1818181818181818</v>
@@ -12369,25 +12369,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.03370786516853932</v>
+        <v>0.03272727272727273</v>
       </c>
       <c r="C185">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D185">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="E185">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F185">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>86</v>
+        <v>266</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>392</v>
@@ -12419,7 +12419,7 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>393</v>
@@ -12469,13 +12469,13 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.03272727272727273</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C187">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="E187">
         <v>0.9399999999999999</v>
@@ -12487,7 +12487,7 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <v>266</v>
+        <v>30</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>394</v>
@@ -12519,25 +12519,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>395</v>
@@ -12569,25 +12569,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E189">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F189">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>396</v>
@@ -12619,25 +12619,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.03125</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E190">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="F190">
-        <v>0.5</v>
+        <v>0.29</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>397</v>
@@ -12669,25 +12669,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.03125</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D191">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E191">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F191">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>398</v>
@@ -12719,25 +12719,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.03076923076923077</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E192">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>399</v>
@@ -12769,25 +12769,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.03076923076923077</v>
+        <v>0.02830188679245283</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D193">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E193">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F193">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>400</v>
@@ -12819,25 +12819,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.02941176470588235</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F194">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>401</v>
@@ -12869,28 +12869,28 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.02830188679245283</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D195">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E195">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="F195">
-        <v>0.09999999999999998</v>
+        <v>0.17</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K195">
         <v>0.1790123456790123</v>
@@ -12922,25 +12922,25 @@
         <v>0.02702702702702703</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D196">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E196">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F196">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K196">
         <v>0.1785714285714286</v>
@@ -12969,25 +12969,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E197">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="F197">
-        <v>0.17</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>402</v>
@@ -13019,25 +13019,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D198">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E198">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F198">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>403</v>
@@ -13069,28 +13069,28 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.02631578947368421</v>
+        <v>0.02586206896551724</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D199">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E199">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F199">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K199">
         <v>0.1764705882352941</v>
@@ -13119,28 +13119,28 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E200">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K200">
         <v>0.1752577319587629</v>
@@ -13169,28 +13169,28 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.02586206896551724</v>
+        <v>0.02521008403361345</v>
       </c>
       <c r="C201">
         <v>3</v>
       </c>
       <c r="D201">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="E201">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F201">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K201">
         <v>0.1739130434782609</v>
@@ -13219,25 +13219,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H202">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>404</v>
@@ -13269,28 +13269,28 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.02521008403361345</v>
+        <v>0.025</v>
       </c>
       <c r="C203">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D203">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="E203">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F203">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K203">
         <v>0.1730769230769231</v>
@@ -13319,25 +13319,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E204">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F204">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>405</v>
@@ -13369,28 +13369,28 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D205">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E205">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F205">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K205">
         <v>0.1719457013574661</v>
@@ -13419,25 +13419,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.02439024390243903</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D206">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E206">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>406</v>
@@ -13469,25 +13469,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.02439024390243903</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="C207">
         <v>2</v>
       </c>
       <c r="D207">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E207">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F207">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>407</v>
@@ -13519,25 +13519,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.02409638554216868</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C208">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D208">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="G208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>408</v>
@@ -13569,25 +13569,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.02409638554216868</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D209">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E209">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F209">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>409</v>
@@ -13619,25 +13619,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.02380952380952381</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D210">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E210">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
       <c r="F210">
-        <v>0.15</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>410</v>
@@ -13669,25 +13669,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D211">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E211">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="F211">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>411</v>
@@ -13719,25 +13719,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.02272727272727273</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E212">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F212">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>412</v>
@@ -13769,25 +13769,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.02222222222222222</v>
+        <v>0.02171081198436822</v>
       </c>
       <c r="C213">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D213">
-        <v>49</v>
+        <v>854</v>
       </c>
       <c r="E213">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F213">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>88</v>
+        <v>2253</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>413</v>
@@ -13819,28 +13819,28 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.02173913043478261</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E214">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F214">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K214">
         <v>0.1666666666666667</v>
@@ -13869,25 +13869,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.02171081198436822</v>
+        <v>0.02148760330578512</v>
       </c>
       <c r="C215">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D215">
-        <v>854</v>
+        <v>302</v>
       </c>
       <c r="E215">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F215">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>2253</v>
+        <v>592</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>414</v>
@@ -13919,25 +13919,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.02150537634408602</v>
+        <v>0.0213903743315508</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D216">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E216">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="F216">
-        <v>0.11</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>415</v>
@@ -13969,25 +13969,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.02148760330578512</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C217">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>302</v>
+        <v>4</v>
       </c>
       <c r="E217">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="F217">
-        <v>0.04000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>592</v>
+        <v>46</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>416</v>
@@ -14019,25 +14019,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0213903743315508</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C218">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D218">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E218">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="F218">
-        <v>0.09999999999999998</v>
+        <v>0.12</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>183</v>
+        <v>92</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>417</v>
@@ -14075,13 +14075,13 @@
         <v>1</v>
       </c>
       <c r="D219">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E219">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="F219">
-        <v>0.25</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
@@ -14122,22 +14122,22 @@
         <v>0.02127659574468085</v>
       </c>
       <c r="C220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D220">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E220">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F220">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>419</v>
@@ -14169,25 +14169,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.02127659574468085</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D221">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="E221">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="F221">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>420</v>
@@ -14219,25 +14219,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.02127659574468085</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E222">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F222">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>421</v>
@@ -14269,25 +14269,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.02061855670103093</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D223">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="E223">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H223">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>422</v>
@@ -14319,25 +14319,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.02040816326530612</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D224">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E224">
-        <v>0.93</v>
+        <v>0.71</v>
       </c>
       <c r="F224">
-        <v>0.06999999999999995</v>
+        <v>0.29</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>423</v>
@@ -14369,25 +14369,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0196078431372549</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H225">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>424</v>
@@ -14419,25 +14419,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.01941747572815534</v>
+        <v>0.01883353584447145</v>
       </c>
       <c r="C226">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D226">
-        <v>7</v>
+        <v>528</v>
       </c>
       <c r="E226">
-        <v>0.71</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F226">
-        <v>0.29</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>101</v>
+        <v>1615</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>425</v>
@@ -14469,25 +14469,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.01886792452830189</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D227">
-        <v>7</v>
+        <v>274</v>
       </c>
       <c r="E227">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="F227">
-        <v>0.14</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>52</v>
+        <v>627</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>426</v>
@@ -14519,25 +14519,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.01883353584447145</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C228">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <v>528</v>
+        <v>10</v>
       </c>
       <c r="E228">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F228">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>1615</v>
+        <v>53</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>427</v>
@@ -14569,25 +14569,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0187793427230047</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C229">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>274</v>
+        <v>9</v>
       </c>
       <c r="E229">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="F229">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>627</v>
+        <v>54</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>428</v>
@@ -14619,25 +14619,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E230">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="F230">
-        <v>0.09999999999999998</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>429</v>
@@ -14669,25 +14669,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E231">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H231">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>430</v>
@@ -14719,25 +14719,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D232">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E232">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="F232">
-        <v>0.08999999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>431</v>
@@ -14775,16 +14775,16 @@
         <v>1</v>
       </c>
       <c r="D233">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F233">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H233">
         <v>55</v>
@@ -14819,25 +14819,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.01785714285714286</v>
+        <v>0.01730769230769231</v>
       </c>
       <c r="C234">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D234">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="E234">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F234">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>110</v>
+        <v>511</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>433</v>
@@ -14869,28 +14869,28 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.01785714285714286</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E235">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F235">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K235">
         <v>0.1640625</v>
@@ -14919,13 +14919,13 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.01730769230769231</v>
+        <v>0.01594202898550725</v>
       </c>
       <c r="C236">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D236">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="E236">
         <v>0.9399999999999999</v>
@@ -14937,10 +14937,10 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>511</v>
+        <v>679</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K236">
         <v>0.162962962962963</v>
@@ -14969,25 +14969,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.01724137931034483</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D237">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E237">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F237">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H237">
-        <v>57</v>
+        <v>248</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>434</v>
@@ -15019,25 +15019,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.01594202898550725</v>
+        <v>0.015625</v>
       </c>
       <c r="C238">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D238">
-        <v>188</v>
+        <v>15</v>
       </c>
       <c r="E238">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F238">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>679</v>
+        <v>63</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>435</v>
@@ -15069,25 +15069,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.01587301587301587</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="C239">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D239">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F239">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H239">
-        <v>248</v>
+        <v>198</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>436</v>
@@ -15119,25 +15119,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.015625</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E240">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F240">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>437</v>
@@ -15169,28 +15169,28 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.01492537313432836</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="C241">
         <v>3</v>
       </c>
       <c r="D241">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="E241">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F241">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K241">
         <v>0.16</v>
@@ -15219,25 +15219,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.01492537313432836</v>
+        <v>0.01481481481481482</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D242">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E242">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F242">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>438</v>
@@ -15269,25 +15269,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.01485148514851485</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="C243">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="E243">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="F243">
-        <v>0.03000000000000003</v>
+        <v>0.17</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>199</v>
+        <v>68</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>439</v>
@@ -15319,28 +15319,28 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.01481481481481482</v>
+        <v>0.01418439716312057</v>
       </c>
       <c r="C244">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D244">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="E244">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F244">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>133</v>
+        <v>417</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K244">
         <v>0.15625</v>
@@ -15369,28 +15369,28 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.01449275362318841</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E245">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F245">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K245">
         <v>0.1538461538461539</v>
@@ -15419,28 +15419,28 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.01418439716312057</v>
+        <v>0.01340482573726542</v>
       </c>
       <c r="C246">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D246">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="E246">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H246">
-        <v>417</v>
+        <v>368</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K246">
         <v>0.1538461538461539</v>
@@ -15469,25 +15469,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.01351351351351351</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="E247">
-        <v>0.67</v>
+        <v>0.99</v>
       </c>
       <c r="F247">
-        <v>0.33</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>440</v>
@@ -15519,25 +15519,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.01340482573726542</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C248">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D248">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F248">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H248">
-        <v>368</v>
+        <v>76</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>441</v>
@@ -15569,25 +15569,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.0131578947368421</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D249">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E249">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F249">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>442</v>
@@ -15619,25 +15619,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.01298701298701299</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E250">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F250">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>443</v>
@@ -15669,25 +15669,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.01298701298701299</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="C251">
         <v>2</v>
       </c>
       <c r="D251">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E251">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F251">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>444</v>
@@ -15719,7 +15719,7 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.01265822784810127</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -15737,7 +15737,7 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>445</v>
@@ -15769,25 +15769,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.01257861635220126</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C253">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D253">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E253">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H253">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>446</v>
@@ -15819,25 +15819,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.01204819277108434</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E254">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F254">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>447</v>
@@ -15869,28 +15869,28 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.01111111111111111</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F255">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H255">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K255">
         <v>0.1495327102803738</v>
@@ -15919,25 +15919,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.01041666666666667</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E256">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F256">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>448</v>
@@ -15969,25 +15969,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.01020408163265306</v>
+        <v>0.009544008483563097</v>
       </c>
       <c r="C257">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D257">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E257">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="F257">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>97</v>
+        <v>934</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>449</v>
@@ -16019,28 +16019,28 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.0101010101010101</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="C258">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D258">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="E258">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="F258">
-        <v>0.33</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>98</v>
+        <v>210</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K258">
         <v>0.1481481481481481</v>
@@ -16069,25 +16069,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.009544008483563097</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C259">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D259">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E259">
-        <v>0.74</v>
+        <v>0.95</v>
       </c>
       <c r="F259">
-        <v>0.26</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>934</v>
+        <v>107</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>450</v>
@@ -16119,25 +16119,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.009433962264150943</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="C260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D260">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E260">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F260">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>451</v>
@@ -16169,28 +16169,28 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.009259259259259259</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E261">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F261">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J261" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K261">
         <v>0.1451612903225807</v>
@@ -16219,28 +16219,28 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.00909090909090909</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D262">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E262">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F262">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>109</v>
+        <v>260</v>
       </c>
       <c r="J262" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K262">
         <v>0.1447368421052632</v>
@@ -16269,25 +16269,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.00909090909090909</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E263">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="F263">
-        <v>0.04000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>452</v>
@@ -16319,25 +16319,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.007633587786259542</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="C264">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D264">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="E264">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="F264">
-        <v>0.04000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>260</v>
+        <v>1080</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>453</v>
@@ -16369,25 +16369,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.007518796992481203</v>
+        <v>0.007194244604316547</v>
       </c>
       <c r="C265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D265">
-        <v>6</v>
+        <v>210</v>
       </c>
       <c r="E265">
-        <v>0.83</v>
+        <v>0.99</v>
       </c>
       <c r="F265">
-        <v>0.17</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>132</v>
+        <v>276</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>454</v>
@@ -16419,25 +16419,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.007352941176470588</v>
+        <v>0.006920415224913495</v>
       </c>
       <c r="C266">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D266">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="E266">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="F266">
-        <v>0.09999999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>1080</v>
+        <v>287</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>455</v>
@@ -16469,25 +16469,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.007194244604316547</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="C267">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D267">
-        <v>210</v>
+        <v>24</v>
       </c>
       <c r="E267">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F267">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>276</v>
+        <v>148</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>456</v>
@@ -16519,25 +16519,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.006920415224913495</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D268">
         <v>6</v>
       </c>
       <c r="E268">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F268">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>457</v>
@@ -16569,13 +16569,13 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.006711409395973154</v>
+        <v>0.004926108374384237</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
       <c r="D269">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E269">
         <v>0.96</v>
@@ -16587,7 +16587,7 @@
         <v>1</v>
       </c>
       <c r="H269">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>458</v>
@@ -16619,25 +16619,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.006024096385542169</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="C270">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D270">
-        <v>6</v>
+        <v>393</v>
       </c>
       <c r="E270">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="F270">
-        <v>0.17</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>165</v>
+        <v>2808</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>459</v>
@@ -16669,25 +16669,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.004926108374384237</v>
+        <v>0.001934235976789168</v>
       </c>
       <c r="C271">
         <v>1</v>
       </c>
       <c r="D271">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E271">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F271">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>202</v>
+        <v>516</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>460</v>
@@ -16715,30 +16715,6 @@
       </c>
     </row>
     <row r="272" spans="1:17">
-      <c r="A272" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B272">
-        <v>0.004608294930875576</v>
-      </c>
-      <c r="C272">
-        <v>13</v>
-      </c>
-      <c r="D272">
-        <v>393</v>
-      </c>
-      <c r="E272">
-        <v>0.97</v>
-      </c>
-      <c r="F272">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G272" t="b">
-        <v>1</v>
-      </c>
-      <c r="H272">
-        <v>2808</v>
-      </c>
       <c r="J272" s="1" t="s">
         <v>461</v>
       </c>
@@ -16764,31 +16740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:17">
-      <c r="A273" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B273">
-        <v>0.001934235976789168</v>
-      </c>
-      <c r="C273">
-        <v>1</v>
-      </c>
-      <c r="D273">
-        <v>29</v>
-      </c>
-      <c r="E273">
-        <v>0.97</v>
-      </c>
-      <c r="F273">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G273" t="b">
-        <v>1</v>
-      </c>
-      <c r="H273">
-        <v>516</v>
-      </c>
+    <row r="273" spans="10:17">
       <c r="J273" s="1" t="s">
         <v>462</v>
       </c>
@@ -16814,7 +16766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="274" spans="1:17">
+    <row r="274" spans="10:17">
       <c r="J274" s="1" t="s">
         <v>463</v>
       </c>
@@ -16840,9 +16792,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:17">
+    <row r="275" spans="10:17">
       <c r="J275" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K275">
         <v>0.1428571428571428</v>
@@ -16866,7 +16818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="276" spans="1:17">
+    <row r="276" spans="10:17">
       <c r="J276" s="1" t="s">
         <v>464</v>
       </c>
@@ -16892,7 +16844,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="277" spans="1:17">
+    <row r="277" spans="10:17">
       <c r="J277" s="1" t="s">
         <v>465</v>
       </c>
@@ -16918,7 +16870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="278" spans="1:17">
+    <row r="278" spans="10:17">
       <c r="J278" s="1" t="s">
         <v>466</v>
       </c>
@@ -16944,7 +16896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:17">
+    <row r="279" spans="10:17">
       <c r="J279" s="1" t="s">
         <v>467</v>
       </c>
@@ -16970,7 +16922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="280" spans="1:17">
+    <row r="280" spans="10:17">
       <c r="J280" s="1" t="s">
         <v>468</v>
       </c>
@@ -16996,7 +16948,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="281" spans="1:17">
+    <row r="281" spans="10:17">
       <c r="J281" s="1" t="s">
         <v>469</v>
       </c>
@@ -17022,7 +16974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="282" spans="1:17">
+    <row r="282" spans="10:17">
       <c r="J282" s="1" t="s">
         <v>470</v>
       </c>
@@ -17048,7 +17000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:17">
+    <row r="283" spans="10:17">
       <c r="J283" s="1" t="s">
         <v>471</v>
       </c>
@@ -17074,7 +17026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="284" spans="1:17">
+    <row r="284" spans="10:17">
       <c r="J284" s="1" t="s">
         <v>472</v>
       </c>
@@ -17100,7 +17052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="285" spans="1:17">
+    <row r="285" spans="10:17">
       <c r="J285" s="1" t="s">
         <v>473</v>
       </c>
@@ -17126,7 +17078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:17">
+    <row r="286" spans="10:17">
       <c r="J286" s="1" t="s">
         <v>474</v>
       </c>
@@ -17152,7 +17104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="287" spans="1:17">
+    <row r="287" spans="10:17">
       <c r="J287" s="1" t="s">
         <v>475</v>
       </c>
@@ -17178,7 +17130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" spans="1:17">
+    <row r="288" spans="10:17">
       <c r="J288" s="1" t="s">
         <v>476</v>
       </c>
@@ -17388,7 +17340,7 @@
     </row>
     <row r="296" spans="10:17">
       <c r="J296" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K296">
         <v>0.1420765027322404</v>
@@ -17414,7 +17366,7 @@
     </row>
     <row r="297" spans="10:17">
       <c r="J297" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K297">
         <v>0.1401869158878505</v>
@@ -17596,7 +17548,7 @@
     </row>
     <row r="304" spans="10:17">
       <c r="J304" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K304">
         <v>0.1345029239766082</v>
@@ -17674,7 +17626,7 @@
     </row>
     <row r="307" spans="10:17">
       <c r="J307" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K307">
         <v>0.1333333333333333</v>
@@ -17726,7 +17678,7 @@
     </row>
     <row r="309" spans="10:17">
       <c r="J309" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K309">
         <v>0.1333333333333333</v>
@@ -17778,7 +17730,7 @@
     </row>
     <row r="311" spans="10:17">
       <c r="J311" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K311">
         <v>0.1333333333333333</v>
@@ -17804,7 +17756,7 @@
     </row>
     <row r="312" spans="10:17">
       <c r="J312" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K312">
         <v>0.1333333333333333</v>
@@ -17856,7 +17808,7 @@
     </row>
     <row r="314" spans="10:17">
       <c r="J314" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K314">
         <v>0.1304347826086956</v>
@@ -17934,7 +17886,7 @@
     </row>
     <row r="317" spans="10:17">
       <c r="J317" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K317">
         <v>0.1290322580645161</v>
@@ -17986,7 +17938,7 @@
     </row>
     <row r="319" spans="10:17">
       <c r="J319" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K319">
         <v>0.126984126984127</v>
@@ -18896,7 +18848,7 @@
     </row>
     <row r="354" spans="10:17">
       <c r="J354" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K354">
         <v>0.1219512195121951</v>
@@ -18948,7 +18900,7 @@
     </row>
     <row r="356" spans="10:17">
       <c r="J356" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K356">
         <v>0.1191969887076537</v>
@@ -18974,7 +18926,7 @@
     </row>
     <row r="357" spans="10:17">
       <c r="J357" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K357">
         <v>0.1182795698924731</v>
@@ -19260,7 +19212,7 @@
     </row>
     <row r="368" spans="10:17">
       <c r="J368" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K368">
         <v>0.1136363636363636</v>
@@ -19546,7 +19498,7 @@
     </row>
     <row r="379" spans="10:17">
       <c r="J379" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K379">
         <v>0.1111111111111111</v>
@@ -19806,7 +19758,7 @@
     </row>
     <row r="389" spans="10:17">
       <c r="J389" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K389">
         <v>0.1111111111111111</v>
@@ -19858,7 +19810,7 @@
     </row>
     <row r="391" spans="10:17">
       <c r="J391" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K391">
         <v>0.1111111111111111</v>
@@ -20144,7 +20096,7 @@
     </row>
     <row r="402" spans="10:17">
       <c r="J402" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K402">
         <v>0.1061946902654867</v>
@@ -20274,7 +20226,7 @@
     </row>
     <row r="407" spans="10:17">
       <c r="J407" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K407">
         <v>0.103448275862069</v>
@@ -20352,7 +20304,7 @@
     </row>
     <row r="410" spans="10:17">
       <c r="J410" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K410">
         <v>0.1</v>
@@ -22926,7 +22878,7 @@
     </row>
     <row r="509" spans="10:17">
       <c r="J509" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K509">
         <v>0.08</v>
@@ -22952,7 +22904,7 @@
     </row>
     <row r="510" spans="10:17">
       <c r="J510" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K510">
         <v>0.08</v>
@@ -23082,7 +23034,7 @@
     </row>
     <row r="515" spans="10:17">
       <c r="J515" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K515">
         <v>0.07692307692307693</v>
@@ -23160,7 +23112,7 @@
     </row>
     <row r="518" spans="10:17">
       <c r="J518" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K518">
         <v>0.07692307692307693</v>
@@ -23472,7 +23424,7 @@
     </row>
     <row r="530" spans="10:17">
       <c r="J530" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K530">
         <v>0.07352941176470588</v>
@@ -23602,7 +23554,7 @@
     </row>
     <row r="535" spans="10:17">
       <c r="J535" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K535">
         <v>0.07142857142857142</v>
@@ -23706,7 +23658,7 @@
     </row>
     <row r="539" spans="10:17">
       <c r="J539" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K539">
         <v>0.07142857142857142</v>
@@ -24226,7 +24178,7 @@
     </row>
     <row r="559" spans="10:17">
       <c r="J559" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K559">
         <v>0.0684931506849315</v>
@@ -24538,7 +24490,7 @@
     </row>
     <row r="571" spans="10:17">
       <c r="J571" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K571">
         <v>0.06666666666666667</v>
@@ -24772,7 +24724,7 @@
     </row>
     <row r="580" spans="10:17">
       <c r="J580" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K580">
         <v>0.06331309627059845</v>
@@ -25240,7 +25192,7 @@
     </row>
     <row r="598" spans="10:17">
       <c r="J598" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K598">
         <v>0.06122448979591837</v>
@@ -25370,7 +25322,7 @@
     </row>
     <row r="603" spans="10:17">
       <c r="J603" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K603">
         <v>0.05882352941176471</v>
@@ -26098,7 +26050,7 @@
     </row>
     <row r="631" spans="10:17">
       <c r="J631" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K631">
         <v>0.05263157894736842</v>
@@ -26332,7 +26284,7 @@
     </row>
     <row r="640" spans="10:17">
       <c r="J640" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K640">
         <v>0.05147058823529412</v>
@@ -26852,7 +26804,7 @@
     </row>
     <row r="660" spans="10:17">
       <c r="J660" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K660">
         <v>0.04716981132075472</v>
@@ -27112,7 +27064,7 @@
     </row>
     <row r="670" spans="10:17">
       <c r="J670" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K670">
         <v>0.04347826086956522</v>
@@ -27138,7 +27090,7 @@
     </row>
     <row r="671" spans="10:17">
       <c r="J671" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K671">
         <v>0.04347826086956522</v>
@@ -27294,7 +27246,7 @@
     </row>
     <row r="677" spans="10:17">
       <c r="J677" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K677">
         <v>0.04166666666666666</v>
@@ -27398,7 +27350,7 @@
     </row>
     <row r="681" spans="10:17">
       <c r="J681" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K681">
         <v>0.04040404040404041</v>
@@ -27788,7 +27740,7 @@
     </row>
     <row r="696" spans="10:17">
       <c r="J696" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K696">
         <v>0.03703703703703703</v>
@@ -27892,7 +27844,7 @@
     </row>
     <row r="700" spans="10:17">
       <c r="J700" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K700">
         <v>0.0364963503649635</v>
@@ -28100,7 +28052,7 @@
     </row>
     <row r="708" spans="10:17">
       <c r="J708" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K708">
         <v>0.03529411764705882</v>
@@ -28724,7 +28676,7 @@
     </row>
     <row r="732" spans="10:17">
       <c r="J732" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K732">
         <v>0.03125</v>
@@ -28880,7 +28832,7 @@
     </row>
     <row r="738" spans="10:17">
       <c r="J738" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K738">
         <v>0.03</v>
@@ -28906,7 +28858,7 @@
     </row>
     <row r="739" spans="10:17">
       <c r="J739" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K739">
         <v>0.02941176470588235</v>
@@ -29270,7 +29222,7 @@
     </row>
     <row r="753" spans="10:17">
       <c r="J753" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K753">
         <v>0.02666666666666667</v>
@@ -29322,7 +29274,7 @@
     </row>
     <row r="755" spans="10:17">
       <c r="J755" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K755">
         <v>0.02631578947368421</v>
@@ -29426,7 +29378,7 @@
     </row>
     <row r="759" spans="10:17">
       <c r="J759" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K759">
         <v>0.02606882168925964</v>
@@ -29504,7 +29456,7 @@
     </row>
     <row r="762" spans="10:17">
       <c r="J762" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K762">
         <v>0.025</v>
@@ -29582,7 +29534,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K765">
         <v>0.02439024390243903</v>
@@ -30102,7 +30054,7 @@
     </row>
     <row r="785" spans="10:17">
       <c r="J785" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K785">
         <v>0.02</v>
@@ -30518,7 +30470,7 @@
     </row>
     <row r="801" spans="10:17">
       <c r="J801" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K801">
         <v>0.01374570446735395</v>
@@ -30570,7 +30522,7 @@
     </row>
     <row r="803" spans="10:17">
       <c r="J803" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K803">
         <v>0.01298701298701299</v>
